--- a/data/Имена.xlsx
+++ b/data/Имена.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PotatoHD\Documents\GitHub\java-lab-5\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\лабэксель\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6031DD42-203D-4451-BA72-F067DDD5C6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F915BC74-B827-4CE2-9C43-15EF0E0551D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20800" yWindow="8930" windowWidth="19640" windowHeight="16880" xr2:uid="{409C789D-C031-4589-A5A3-10732045FC10}"/>
+    <workbookView xWindow="3503" yWindow="1612" windowWidth="16200" windowHeight="9308" xr2:uid="{409C789D-C031-4589-A5A3-10732045FC10}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -490,12 +490,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -511,7 +511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,7 +519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -527,7 +527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -535,7 +535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -543,7 +543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -551,7 +551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -559,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -567,7 +567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -575,7 +575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -591,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -607,7 +607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -615,7 +615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -623,7 +623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -631,7 +631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -639,7 +639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -647,7 +647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -655,7 +655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -663,7 +663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -671,7 +671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -679,7 +679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -687,7 +687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -695,7 +695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -703,7 +703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -711,7 +711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -719,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -727,7 +727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>27</v>
       </c>
